--- a/neural_network/analysis/network_child_comparisons.xlsx
+++ b/neural_network/analysis/network_child_comparisons.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20356"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\detbe\OneDrive\Desktop\Grand Folder\Publications\SOC_study\soc_non_category\soc_analysis\neural_network\analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbenton2\Desktop\God Folder\publications\soc_learning\soc_non_category\soc_analysis\neural_network\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E10CFA-6CB0-4106-9ABB-C7242CA9E43E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D79B0A-E384-4065-AE77-2D60DACA8BF8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A2598E12-59BA-45AF-86EE-C6ED63168923}"/>
   </bookViews>
@@ -19,14 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -50,9 +42,6 @@
     <t>D</t>
   </si>
   <si>
-    <t>age</t>
-  </si>
-  <si>
     <t>condition</t>
   </si>
   <si>
@@ -60,6 +49,9 @@
   </si>
   <si>
     <t>memory_check</t>
+  </si>
+  <si>
+    <t>mem_status</t>
   </si>
 </sst>
 </file>
@@ -414,29 +406,29 @@
   <dimension ref="A1:E105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -453,7 +445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -470,7 +462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -487,7 +479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -504,7 +496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -521,7 +513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -538,7 +530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -555,7 +547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -572,7 +564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -589,7 +581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -606,7 +598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -623,7 +615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -640,7 +632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -657,7 +649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -674,7 +666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -691,7 +683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -708,7 +700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -725,7 +717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -742,7 +734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -759,7 +751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -776,7 +768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -793,7 +785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -810,7 +802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -827,7 +819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -844,7 +836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -861,7 +853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -878,7 +870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -895,7 +887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -912,7 +904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -929,7 +921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -946,7 +938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -963,7 +955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -980,7 +972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -997,7 +989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1014,7 +1006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1031,7 +1023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1048,7 +1040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1065,7 +1057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1082,7 +1074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1099,7 +1091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1116,7 +1108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1133,7 +1125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1150,7 +1142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1167,7 +1159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1184,7 +1176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1201,7 +1193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1218,7 +1210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1235,7 +1227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1252,7 +1244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1269,7 +1261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1286,7 +1278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1303,7 +1295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1320,7 +1312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1337,7 +1329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1354,7 +1346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1371,7 +1363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1388,7 +1380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1405,7 +1397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1422,7 +1414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1439,7 +1431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -1456,7 +1448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -1473,7 +1465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -1490,7 +1482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -1507,7 +1499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -1524,7 +1516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -1541,7 +1533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -1558,7 +1550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -1575,7 +1567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -1592,7 +1584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -1609,7 +1601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -1626,7 +1618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -1643,7 +1635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -1660,7 +1652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -1677,7 +1669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -1694,7 +1686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -1711,7 +1703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -1728,7 +1720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -1745,7 +1737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -1762,7 +1754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -1779,7 +1771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -1796,7 +1788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -1813,7 +1805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -1830,7 +1822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -1847,7 +1839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -1864,7 +1856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -1881,7 +1873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -1898,7 +1890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -1915,7 +1907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -1932,7 +1924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -1949,7 +1941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -1966,7 +1958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -1983,7 +1975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -2000,7 +1992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -2017,7 +2009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -2034,7 +2026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -2051,7 +2043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -2068,7 +2060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -2085,7 +2077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -2102,7 +2094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -2119,7 +2111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -2136,7 +2128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -2153,7 +2145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -2170,7 +2162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -2187,7 +2179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
